--- a/team_specific_matrix/Butler_A.xlsx
+++ b/team_specific_matrix/Butler_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1584699453551913</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C2">
-        <v>0.6502732240437158</v>
+        <v>0.635593220338983</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01092896174863388</v>
+        <v>0.01271186440677966</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1256830601092896</v>
+        <v>0.1228813559322034</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0546448087431694</v>
+        <v>0.06779661016949153</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0625</v>
+        <v>0.06211180124223602</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0234375</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.765625</v>
+        <v>0.7701863354037267</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1484375</v>
+        <v>0.1490683229813665</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03448275862068965</v>
+        <v>0.025</v>
       </c>
       <c r="P4">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2413793103448276</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07006369426751592</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01910828025477707</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1019108280254777</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2292993630573248</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01910828025477707</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1019108280254777</v>
+        <v>0.09900990099009901</v>
       </c>
       <c r="R6">
-        <v>0.05095541401273886</v>
+        <v>0.0594059405940594</v>
       </c>
       <c r="S6">
-        <v>0.4076433121019108</v>
+        <v>0.3762376237623762</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1016949152542373</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03389830508474576</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05084745762711865</v>
+        <v>0.04861111111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1271186440677966</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01694915254237288</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2288135593220339</v>
+        <v>0.2291666666666667</v>
       </c>
       <c r="R7">
-        <v>0.1016949152542373</v>
+        <v>0.09722222222222222</v>
       </c>
       <c r="S7">
-        <v>0.3389830508474576</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08970976253298153</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01055408970976253</v>
+        <v>0.01555555555555556</v>
       </c>
       <c r="E8">
-        <v>0.002638522427440633</v>
+        <v>0.002222222222222222</v>
       </c>
       <c r="F8">
-        <v>0.0395778364116095</v>
+        <v>0.04666666666666667</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09234828496042216</v>
+        <v>0.09111111111111111</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0158311345646438</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2163588390501319</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="R8">
-        <v>0.09762532981530343</v>
+        <v>0.1044444444444445</v>
       </c>
       <c r="S8">
-        <v>0.4353562005277045</v>
+        <v>0.4222222222222222</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08227848101265822</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02531645569620253</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04430379746835443</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0949367088607595</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03164556962025317</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2025316455696203</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.1582278481012658</v>
+        <v>0.1473684210526316</v>
       </c>
       <c r="S9">
-        <v>0.3607594936708861</v>
+        <v>0.3789473684210526</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08552631578947369</v>
+        <v>0.09326424870466321</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01644736842105263</v>
+        <v>0.01727115716753022</v>
       </c>
       <c r="E10">
-        <v>0.001096491228070175</v>
+        <v>0.0008635578583765112</v>
       </c>
       <c r="F10">
-        <v>0.07017543859649122</v>
+        <v>0.0690846286701209</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1337719298245614</v>
+        <v>0.1269430051813472</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01425438596491228</v>
+        <v>0.01468048359240069</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2390350877192982</v>
+        <v>0.2288428324697755</v>
       </c>
       <c r="R10">
-        <v>0.08223684210526316</v>
+        <v>0.08376511226252159</v>
       </c>
       <c r="S10">
-        <v>0.3574561403508772</v>
+        <v>0.3652849740932643</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1428571428571428</v>
+        <v>0.1407766990291262</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055900621118012</v>
+        <v>0.1116504854368932</v>
       </c>
       <c r="K11">
-        <v>0.2173913043478261</v>
+        <v>0.2233009708737864</v>
       </c>
       <c r="L11">
-        <v>0.5279503105590062</v>
+        <v>0.5194174757281553</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.006211180124223602</v>
+        <v>0.004854368932038835</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7865168539325843</v>
+        <v>0.7909090909090909</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1460674157303371</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05617977528089887</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01123595505617977</v>
+        <v>0.02727272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8378378378378378</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1621621621621622</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03448275862068965</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1724137931034483</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="I15">
-        <v>0.04137931034482759</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="J15">
-        <v>0.3655172413793104</v>
+        <v>0.3882978723404255</v>
       </c>
       <c r="K15">
-        <v>0.07586206896551724</v>
+        <v>0.0797872340425532</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01379310344827586</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.07586206896551724</v>
+        <v>0.09042553191489362</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2206896551724138</v>
+        <v>0.2074468085106383</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005649717514124294</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2014388489208633</v>
+        <v>0.192090395480226</v>
       </c>
       <c r="I16">
-        <v>0.08633093525179857</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="J16">
-        <v>0.4100719424460432</v>
+        <v>0.4293785310734463</v>
       </c>
       <c r="K16">
-        <v>0.08633093525179857</v>
+        <v>0.0903954802259887</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02158273381294964</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05035971223021583</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1438848920863309</v>
+        <v>0.1468926553672316</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01621621621621622</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1837837837837838</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="I17">
-        <v>0.1405405405405405</v>
+        <v>0.1230425055928412</v>
       </c>
       <c r="J17">
-        <v>0.4135135135135135</v>
+        <v>0.4541387024608501</v>
       </c>
       <c r="K17">
-        <v>0.05405405405405406</v>
+        <v>0.05145413870246085</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02702702702702703</v>
+        <v>0.02237136465324385</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05945945945945946</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1054054054054054</v>
+        <v>0.1029082774049217</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03164556962025317</v>
+        <v>0.025</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2341772151898734</v>
+        <v>0.23</v>
       </c>
       <c r="I18">
-        <v>0.1012658227848101</v>
+        <v>0.105</v>
       </c>
       <c r="J18">
-        <v>0.3924050632911392</v>
+        <v>0.385</v>
       </c>
       <c r="K18">
-        <v>0.06329113924050633</v>
+        <v>0.075</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04430379746835443</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0379746835443038</v>
+        <v>0.04</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.0949367088607595</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01783723522853958</v>
+        <v>0.01858407079646018</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2474916387959866</v>
+        <v>0.2353982300884956</v>
       </c>
       <c r="I19">
-        <v>0.08249721293199554</v>
+        <v>0.08584070796460178</v>
       </c>
       <c r="J19">
-        <v>0.3723522853957636</v>
+        <v>0.3734513274336283</v>
       </c>
       <c r="K19">
-        <v>0.0802675585284281</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01783723522853958</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05797101449275362</v>
+        <v>0.06371681415929203</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1237458193979933</v>
+        <v>0.1256637168141593</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Butler_A.xlsx
+++ b/team_specific_matrix/Butler_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1610169491525424</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="C2">
-        <v>0.635593220338983</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01271186440677966</v>
+        <v>0.0158102766798419</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1228813559322034</v>
+        <v>0.1185770750988142</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06779661016949153</v>
+        <v>0.07114624505928854</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.06211180124223602</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01863354037267081</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7701863354037267</v>
+        <v>0.7732558139534884</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1490683229813665</v>
+        <v>0.1511627906976744</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.025</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P4">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.225</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07920792079207921</v>
+        <v>0.07555555555555556</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0198019801980198</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09900990099009901</v>
+        <v>0.09333333333333334</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2475247524752475</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0198019801980198</v>
+        <v>0.01777777777777778</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09900990099009901</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="R6">
-        <v>0.0594059405940594</v>
+        <v>0.06222222222222222</v>
       </c>
       <c r="S6">
-        <v>0.3762376237623762</v>
+        <v>0.3822222222222222</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08333333333333333</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02777777777777778</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04861111111111111</v>
+        <v>0.04938271604938271</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1111111111111111</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01388888888888889</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2291666666666667</v>
+        <v>0.228395061728395</v>
       </c>
       <c r="R7">
-        <v>0.09722222222222222</v>
+        <v>0.09876543209876543</v>
       </c>
       <c r="S7">
         <v>0.3888888888888889</v>
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08888888888888889</v>
+        <v>0.08531746031746032</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01555555555555556</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="E8">
-        <v>0.002222222222222222</v>
+        <v>0.001984126984126984</v>
       </c>
       <c r="F8">
-        <v>0.04666666666666667</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09111111111111111</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01777777777777778</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2111111111111111</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="R8">
-        <v>0.1044444444444445</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="S8">
-        <v>0.4222222222222222</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08421052631578947</v>
+        <v>0.08056872037914692</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03157894736842105</v>
+        <v>0.03317535545023697</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04736842105263158</v>
+        <v>0.05213270142180094</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08421052631578947</v>
+        <v>0.08530805687203792</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02631578947368421</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.1943127962085308</v>
       </c>
       <c r="R9">
-        <v>0.1473684210526316</v>
+        <v>0.1611374407582938</v>
       </c>
       <c r="S9">
-        <v>0.3789473684210526</v>
+        <v>0.3696682464454976</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09326424870466321</v>
+        <v>0.09041309431021044</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01727115716753022</v>
+        <v>0.01792673421667966</v>
       </c>
       <c r="E10">
-        <v>0.0008635578583765112</v>
+        <v>0.000779423226812159</v>
       </c>
       <c r="F10">
-        <v>0.0690846286701209</v>
+        <v>0.06780982073265783</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1269430051813472</v>
+        <v>0.1239282930631333</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01468048359240069</v>
+        <v>0.01480904130943102</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2288428324697755</v>
+        <v>0.2213561964146532</v>
       </c>
       <c r="R10">
-        <v>0.08376511226252159</v>
+        <v>0.08729540140296181</v>
       </c>
       <c r="S10">
-        <v>0.3652849740932643</v>
+        <v>0.3756819953234606</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1407766990291262</v>
+        <v>0.1347826086956522</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1116504854368932</v>
+        <v>0.1130434782608696</v>
       </c>
       <c r="K11">
-        <v>0.2233009708737864</v>
+        <v>0.2217391304347826</v>
       </c>
       <c r="L11">
-        <v>0.5194174757281553</v>
+        <v>0.5260869565217391</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004854368932038835</v>
+        <v>0.004347826086956522</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7909090909090909</v>
+        <v>0.7983870967741935</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1272727272727273</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.05454545454545454</v>
+        <v>0.04838709677419355</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02727272727272727</v>
+        <v>0.02419354838709677</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.8095238095238095</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1904761904761905</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02659574468085106</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1595744680851064</v>
+        <v>0.1643192488262911</v>
       </c>
       <c r="I15">
-        <v>0.03723404255319149</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="J15">
-        <v>0.3882978723404255</v>
+        <v>0.3849765258215962</v>
       </c>
       <c r="K15">
-        <v>0.0797872340425532</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01063829787234043</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09042553191489362</v>
+        <v>0.0892018779342723</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2074468085106383</v>
+        <v>0.2065727699530517</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005649717514124294</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.192090395480226</v>
+        <v>0.2094240837696335</v>
       </c>
       <c r="I16">
-        <v>0.07344632768361582</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="J16">
-        <v>0.4293785310734463</v>
+        <v>0.4240837696335079</v>
       </c>
       <c r="K16">
-        <v>0.0903954802259887</v>
+        <v>0.08376963350785341</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01694915254237288</v>
+        <v>0.02617801047120419</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04519774011299435</v>
+        <v>0.04712041884816754</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1468926553672316</v>
+        <v>0.1361256544502618</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02013422818791946</v>
+        <v>0.02066115702479339</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1677852348993289</v>
+        <v>0.1632231404958678</v>
       </c>
       <c r="I17">
-        <v>0.1230425055928412</v>
+        <v>0.115702479338843</v>
       </c>
       <c r="J17">
-        <v>0.4541387024608501</v>
+        <v>0.4566115702479339</v>
       </c>
       <c r="K17">
-        <v>0.05145413870246085</v>
+        <v>0.05165289256198347</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02237136465324385</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.058165548098434</v>
+        <v>0.0640495867768595</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1029082774049217</v>
+        <v>0.1053719008264463</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.025</v>
+        <v>0.02586206896551724</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.23</v>
+        <v>0.2112068965517241</v>
       </c>
       <c r="I18">
-        <v>0.105</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="J18">
-        <v>0.385</v>
+        <v>0.4094827586206897</v>
       </c>
       <c r="K18">
-        <v>0.075</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04</v>
+        <v>0.04741379310344827</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.09913793103448276</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01858407079646018</v>
+        <v>0.01885310290652003</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2353982300884956</v>
+        <v>0.2388059701492537</v>
       </c>
       <c r="I19">
-        <v>0.08584070796460178</v>
+        <v>0.08719560094265515</v>
       </c>
       <c r="J19">
-        <v>0.3734513274336283</v>
+        <v>0.3637077769049489</v>
       </c>
       <c r="K19">
-        <v>0.07964601769911504</v>
+        <v>0.08248232521602514</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01769911504424779</v>
+        <v>0.01885310290652003</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06371681415929203</v>
+        <v>0.06284367635506677</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1256637168141593</v>
+        <v>0.1272584446190102</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Butler_A.xlsx
+++ b/team_specific_matrix/Butler_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.158102766798419</v>
+        <v>0.1550387596899225</v>
       </c>
       <c r="C2">
-        <v>0.6363636363636364</v>
+        <v>0.6395348837209303</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0158102766798419</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1185770750988142</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07114624505928854</v>
+        <v>0.07364341085271318</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05813953488372093</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01744186046511628</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7732558139534884</v>
+        <v>0.7796610169491526</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1511627906976744</v>
+        <v>0.1468926553672316</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="P4">
-        <v>0.7727272727272727</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2045454545454546</v>
+        <v>0.1914893617021277</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07555555555555556</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01777777777777778</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09333333333333334</v>
+        <v>0.09442060085836911</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2533333333333334</v>
+        <v>0.2575107296137339</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01777777777777778</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09777777777777778</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="R6">
-        <v>0.06222222222222222</v>
+        <v>0.06008583690987124</v>
       </c>
       <c r="S6">
-        <v>0.3822222222222222</v>
+        <v>0.3819742489270386</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08641975308641975</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02469135802469136</v>
+        <v>0.02366863905325444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04938271604938271</v>
+        <v>0.04733727810650887</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1049382716049383</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01851851851851852</v>
+        <v>0.01775147928994083</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.228395061728395</v>
+        <v>0.2366863905325444</v>
       </c>
       <c r="R7">
-        <v>0.09876543209876543</v>
+        <v>0.09467455621301775</v>
       </c>
       <c r="S7">
-        <v>0.3888888888888889</v>
+        <v>0.3964497041420119</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08531746031746032</v>
+        <v>0.08604206500956023</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01388888888888889</v>
+        <v>0.01338432122370937</v>
       </c>
       <c r="E8">
-        <v>0.001984126984126984</v>
+        <v>0.001912045889101338</v>
       </c>
       <c r="F8">
-        <v>0.05158730158730158</v>
+        <v>0.05353728489483748</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08928571428571429</v>
+        <v>0.08795411089866156</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01587301587301587</v>
+        <v>0.01529636711281071</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2063492063492063</v>
+        <v>0.2065009560229445</v>
       </c>
       <c r="R8">
-        <v>0.1071428571428571</v>
+        <v>0.1051625239005736</v>
       </c>
       <c r="S8">
-        <v>0.4285714285714285</v>
+        <v>0.4302103250478012</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08056872037914692</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03317535545023697</v>
+        <v>0.03255813953488372</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05213270142180094</v>
+        <v>0.05116279069767442</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08530805687203792</v>
+        <v>0.08372093023255814</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02369668246445497</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1943127962085308</v>
+        <v>0.1906976744186047</v>
       </c>
       <c r="R9">
-        <v>0.1611374407582938</v>
+        <v>0.1581395348837209</v>
       </c>
       <c r="S9">
-        <v>0.3696682464454976</v>
+        <v>0.3674418604651163</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09041309431021044</v>
+        <v>0.08715251690458302</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01792673421667966</v>
+        <v>0.01953418482344102</v>
       </c>
       <c r="E10">
-        <v>0.000779423226812159</v>
+        <v>0.0007513148009015778</v>
       </c>
       <c r="F10">
-        <v>0.06780982073265783</v>
+        <v>0.067618332081142</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1239282930631333</v>
+        <v>0.1232156273478587</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01480904130943102</v>
+        <v>0.01427498121712998</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2213561964146532</v>
+        <v>0.2208865514650639</v>
       </c>
       <c r="R10">
-        <v>0.08729540140296181</v>
+        <v>0.0879038317054846</v>
       </c>
       <c r="S10">
-        <v>0.3756819953234606</v>
+        <v>0.3786626596543952</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1347826086956522</v>
+        <v>0.1319148936170213</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1130434782608696</v>
+        <v>0.1106382978723404</v>
       </c>
       <c r="K11">
-        <v>0.2217391304347826</v>
+        <v>0.2170212765957447</v>
       </c>
       <c r="L11">
-        <v>0.5260869565217391</v>
+        <v>0.5361702127659574</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.004347826086956522</v>
+        <v>0.00425531914893617</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7983870967741935</v>
+        <v>0.8062015503875969</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1290322580645161</v>
+        <v>0.124031007751938</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04838709677419355</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02419354838709677</v>
+        <v>0.02325581395348837</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7755102040816326</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2244897959183673</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02347417840375587</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1643192488262911</v>
+        <v>0.15625</v>
       </c>
       <c r="I15">
-        <v>0.04694835680751173</v>
+        <v>0.04464285714285714</v>
       </c>
       <c r="J15">
-        <v>0.3849765258215962</v>
+        <v>0.3973214285714285</v>
       </c>
       <c r="K15">
-        <v>0.07511737089201878</v>
+        <v>0.07589285714285714</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009389671361502348</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0892018779342723</v>
+        <v>0.09375</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2065727699530517</v>
+        <v>0.2008928571428572</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005235602094240838</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2094240837696335</v>
+        <v>0.2081218274111675</v>
       </c>
       <c r="I16">
-        <v>0.06806282722513089</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="J16">
-        <v>0.4240837696335079</v>
+        <v>0.4263959390862944</v>
       </c>
       <c r="K16">
-        <v>0.08376963350785341</v>
+        <v>0.08629441624365482</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02617801047120419</v>
+        <v>0.02538071065989848</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04712041884816754</v>
+        <v>0.04568527918781726</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1361256544502618</v>
+        <v>0.1370558375634518</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02066115702479339</v>
+        <v>0.02191235059760956</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1632231404958678</v>
+        <v>0.1673306772908366</v>
       </c>
       <c r="I17">
-        <v>0.115702479338843</v>
+        <v>0.1175298804780877</v>
       </c>
       <c r="J17">
-        <v>0.4566115702479339</v>
+        <v>0.4521912350597609</v>
       </c>
       <c r="K17">
-        <v>0.05165289256198347</v>
+        <v>0.049800796812749</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02272727272727273</v>
+        <v>0.02191235059760956</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.0640495867768595</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1053719008264463</v>
+        <v>0.1055776892430279</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02586206896551724</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2112068965517241</v>
+        <v>0.2100840336134454</v>
       </c>
       <c r="I18">
-        <v>0.103448275862069</v>
+        <v>0.1008403361344538</v>
       </c>
       <c r="J18">
-        <v>0.4094827586206897</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="K18">
-        <v>0.06896551724137931</v>
+        <v>0.06722689075630252</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03448275862068965</v>
+        <v>0.03361344537815126</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04741379310344827</v>
+        <v>0.04621848739495799</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.09913793103448276</v>
+        <v>0.1050420168067227</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01885310290652003</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2388059701492537</v>
+        <v>0.2384905660377359</v>
       </c>
       <c r="I19">
-        <v>0.08719560094265515</v>
+        <v>0.08452830188679246</v>
       </c>
       <c r="J19">
-        <v>0.3637077769049489</v>
+        <v>0.3652830188679245</v>
       </c>
       <c r="K19">
-        <v>0.08248232521602514</v>
+        <v>0.08150943396226415</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01885310290652003</v>
+        <v>0.01962264150943396</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06284367635506677</v>
+        <v>0.0649056603773585</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1272584446190102</v>
+        <v>0.1267924528301887</v>
       </c>
     </row>
   </sheetData>
